--- a/data/trans_orig/P16B03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3588F311-5FF8-46C1-8A02-FF7CED759C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11BC57C2-2291-404E-861E-D8850CD4E96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78480576-DCA5-4098-914F-0614BCB7AFD6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1D80841-3067-46F7-8FD0-53E0BA014118}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="327">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -130,13 +130,13 @@
     <t>95,46%</t>
   </si>
   <si>
-    <t>80,91%</t>
+    <t>72,27%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>82,88%</t>
+    <t>85,56%</t>
   </si>
   <si>
     <t>0%</t>
@@ -148,13 +148,13 @@
     <t>4,54%</t>
   </si>
   <si>
-    <t>19,09%</t>
+    <t>27,73%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>17,12%</t>
+    <t>14,44%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -166,16 +166,16 @@
     <t>93,17%</t>
   </si>
   <si>
-    <t>63,46%</t>
+    <t>63,24%</t>
   </si>
   <si>
     <t>78,34%</t>
   </si>
   <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -184,16 +184,16 @@
     <t>6,83%</t>
   </si>
   <si>
-    <t>36,54%</t>
+    <t>36,76%</t>
   </si>
   <si>
     <t>21,66%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,55 +202,55 @@
     <t>55,66%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>74,92%</t>
   </si>
   <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
   </si>
   <si>
     <t>25,08%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -280,43 +280,43 @@
     <t>42,25%</t>
   </si>
   <si>
-    <t>81,66%</t>
+    <t>81,67%</t>
   </si>
   <si>
     <t>89,19%</t>
   </si>
   <si>
-    <t>67,23%</t>
+    <t>66,71%</t>
   </si>
   <si>
     <t>79,46%</t>
   </si>
   <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>57,75%</t>
   </si>
   <si>
-    <t>18,34%</t>
+    <t>18,33%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>32,77%</t>
+    <t>33,29%</t>
   </si>
   <si>
     <t>20,54%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -325,10 +325,10 @@
     <t>83,1%</t>
   </si>
   <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>88,36%</t>
@@ -337,43 +337,37 @@
     <t>76,09%</t>
   </si>
   <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>4,46%</t>
+    <t>4,44%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -382,667 +376,649 @@
     <t>88,17%</t>
   </si>
   <si>
-    <t>62,63%</t>
+    <t>59,78%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>63,08%</t>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2015 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>93,01%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2015 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>18,02%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F677CE01-5DE4-4DEA-977C-E742DD5BC94F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3A6B9C-22A3-4E1B-B767-B5609F0DCBCF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2538,13 +2514,13 @@
         <v>49619</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2535,13 @@
         <v>2789</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2574,13 +2550,13 @@
         <v>4730</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2589,13 +2565,13 @@
         <v>7519</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,7 +2627,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2663,10 +2639,10 @@
         <v>14884</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -2678,13 +2654,13 @@
         <v>21594</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -2693,13 +2669,13 @@
         <v>36478</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2690,13 @@
         <v>1996</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2729,13 +2705,13 @@
         <v>4672</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2744,13 +2720,13 @@
         <v>6669</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2794,13 @@
         <v>52475</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H28" s="7">
         <v>152</v>
@@ -2833,13 +2809,13 @@
         <v>153799</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M28" s="7">
         <v>201</v>
@@ -2848,13 +2824,13 @@
         <v>206274</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2845,13 @@
         <v>16247</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -2884,13 +2860,13 @@
         <v>18361</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -2899,13 +2875,13 @@
         <v>34608</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,7 +2937,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2985,7 +2961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC226610-4F47-4C07-B12B-CFF865EB6250}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2157905-13C1-4815-9936-12DE3042F73F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3002,7 +2978,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3107,39 +3083,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,39 +3128,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,39 +3173,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,7 +3225,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -3261,13 +3237,13 @@
         <v>22530</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3276,13 +3252,13 @@
         <v>31226</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3279,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3312,13 +3288,13 @@
         <v>7010</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3327,13 +3303,13 @@
         <v>7010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,10 +3377,10 @@
         <v>3867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3419,7 +3395,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -3431,10 +3407,10 @@
         <v>23215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3452,13 +3428,13 @@
         <v>947</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3473,7 +3449,7 @@
         <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3482,13 +3458,13 @@
         <v>947</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,10 +3532,10 @@
         <v>8143</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3571,13 +3547,13 @@
         <v>44085</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -3586,13 +3562,13 @@
         <v>52229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3583,13 @@
         <v>1803</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3622,13 +3598,13 @@
         <v>5140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3637,13 +3613,13 @@
         <v>6943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,7 +3690,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3726,10 +3702,10 @@
         <v>19858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3741,10 +3717,10 @@
         <v>24028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3768,7 +3744,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3777,13 +3753,13 @@
         <v>1054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3792,13 +3768,13 @@
         <v>1054</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3860,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>26</v>
@@ -3899,7 +3875,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>26</v>
@@ -3938,7 +3914,7 @@
         <v>33</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3953,7 +3929,7 @@
         <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,10 +3997,10 @@
         <v>5737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -4039,7 +4015,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
@@ -4051,10 +4027,10 @@
         <v>50203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -4072,13 +4048,13 @@
         <v>2836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4093,7 +4069,7 @@
         <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4102,13 +4078,13 @@
         <v>2836</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,7 +4140,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4176,13 +4152,13 @@
         <v>2400</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -4194,7 +4170,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -4206,13 +4182,13 @@
         <v>37863</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,10 +4203,10 @@
         <v>3098</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>13</v>
@@ -4248,7 +4224,7 @@
         <v>33</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4257,13 +4233,13 @@
         <v>3098</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4307,13 @@
         <v>35005</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H28" s="7">
         <v>183</v>
@@ -4346,13 +4322,13 @@
         <v>199826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M28" s="7">
         <v>214</v>
@@ -4361,13 +4337,13 @@
         <v>234830</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4358,13 @@
         <v>8684</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4397,13 +4373,13 @@
         <v>13204</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -4412,13 +4388,13 @@
         <v>21889</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,7 +4450,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360D72DC-22A6-4211-A7DB-99D23F660992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECD00D2-B69A-41F2-A676-A47B5668FAD3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4515,7 +4491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4622,7 +4598,7 @@
         <v>801</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
@@ -4637,10 +4613,10 @@
         <v>19840</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>99</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4652,13 +4628,13 @@
         <v>20641</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,7 +4649,7 @@
         <v>2318</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -4688,13 +4664,13 @@
         <v>922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4703,13 +4679,13 @@
         <v>3240</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,7 +4756,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -4795,7 +4771,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
@@ -4810,7 +4786,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>26</v>
@@ -4834,7 +4810,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4849,7 +4825,7 @@
         <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4864,7 +4840,7 @@
         <v>33</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,10 +4923,10 @@
         <v>9852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4962,10 +4938,10 @@
         <v>11442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4998,13 +4974,13 @@
         <v>1898</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -5013,13 +4989,13 @@
         <v>1898</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5078,13 @@
         <v>25040</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -5120,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5129,13 @@
         <v>4848</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5171,10 +5147,10 @@
         <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,7 +5236,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -5275,7 +5251,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -5314,7 +5290,7 @@
         <v>33</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5329,7 +5305,7 @@
         <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,7 +5376,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -5430,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>26</v>
@@ -5454,7 +5430,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5484,7 +5460,7 @@
         <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5528,13 @@
         <v>10831</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5567,13 +5543,13 @@
         <v>16272</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -5582,13 +5558,13 @@
         <v>27104</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5579,13 @@
         <v>5405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>294</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5618,13 +5594,13 @@
         <v>8514</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -5633,13 +5609,13 @@
         <v>13918</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,7 +5671,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5707,13 +5683,13 @@
         <v>3927</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -5722,10 +5698,10 @@
         <v>27526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5737,13 +5713,13 @@
         <v>31453</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5734,13 @@
         <v>2864</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5773,13 +5749,13 @@
         <v>1080</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5788,13 +5764,13 @@
         <v>3944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5838,13 @@
         <v>31892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>118</v>
@@ -5877,13 +5853,13 @@
         <v>127592</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>150</v>
@@ -5892,13 +5868,13 @@
         <v>159485</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5889,13 @@
         <v>10586</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5928,13 +5904,13 @@
         <v>17262</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -5943,13 +5919,13 @@
         <v>27848</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,7 +5981,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11BC57C2-2291-404E-861E-D8850CD4E96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE43E8C7-4229-45C4-A59D-6DD6721CEA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1D80841-3067-46F7-8FD0-53E0BA014118}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF2FB577-FEAE-41D3-AD31-422C004D5915}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="335">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>86,41%</t>
   </si>
   <si>
-    <t>51,76%</t>
+    <t>36,23%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>93,45%</t>
   </si>
   <si>
-    <t>67,46%</t>
+    <t>71,81%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>73,63%</t>
+    <t>68,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,24%</t>
+    <t>63,77%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>32,54%</t>
+    <t>28,19%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>26,37%</t>
+    <t>31,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -130,13 +130,13 @@
     <t>95,46%</t>
   </si>
   <si>
-    <t>72,27%</t>
+    <t>81,12%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>85,56%</t>
+    <t>83,37%</t>
   </si>
   <si>
     <t>0%</t>
@@ -148,13 +148,13 @@
     <t>4,54%</t>
   </si>
   <si>
-    <t>27,73%</t>
+    <t>18,88%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>14,44%</t>
+    <t>16,63%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -166,16 +166,16 @@
     <t>93,17%</t>
   </si>
   <si>
-    <t>63,24%</t>
+    <t>60,36%</t>
   </si>
   <si>
     <t>78,34%</t>
   </si>
   <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -184,16 +184,16 @@
     <t>6,83%</t>
   </si>
   <si>
-    <t>36,76%</t>
+    <t>39,64%</t>
   </si>
   <si>
     <t>21,66%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,823 +202,847 @@
     <t>55,66%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>74,92%</t>
   </si>
   <si>
-    <t>57,14%</t>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>42,25%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>81,67%</t>
   </si>
   <si>
-    <t>89,19%</t>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
   </si>
   <si>
     <t>33,29%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2015 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
   </si>
   <si>
     <t>34,35%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
   </si>
   <si>
     <t>33,93%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
   </si>
   <si>
     <t>57,83%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>79,48%</t>
+    <t>80,81%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>42,17%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>20,52%</t>
+    <t>19,19%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3A6B9C-22A3-4E1B-B767-B5609F0DCBCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA9F740-1F3F-4777-A8E0-D5926AD7EC1B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2514,13 +2538,13 @@
         <v>49619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2559,13 @@
         <v>2789</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2550,13 +2574,13 @@
         <v>4730</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2565,13 +2589,13 @@
         <v>7519</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,7 +2651,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2639,10 +2663,10 @@
         <v>14884</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -2654,13 +2678,13 @@
         <v>21594</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -2669,13 +2693,13 @@
         <v>36478</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2714,13 @@
         <v>1996</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2705,13 +2729,13 @@
         <v>4672</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2720,13 +2744,13 @@
         <v>6669</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2818,13 @@
         <v>52475</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H28" s="7">
         <v>152</v>
@@ -2809,13 +2833,13 @@
         <v>153799</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M28" s="7">
         <v>201</v>
@@ -2824,13 +2848,13 @@
         <v>206274</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2869,13 @@
         <v>16247</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -2860,13 +2884,13 @@
         <v>18361</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -2875,13 +2899,13 @@
         <v>34608</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,7 +2961,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2961,7 +2985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2157905-13C1-4815-9936-12DE3042F73F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AC90D0-0346-470C-A852-EA4B830AA60E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2978,7 +3002,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3083,39 +3107,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,39 +3152,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,39 +3197,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,7 +3249,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -3237,13 +3261,13 @@
         <v>22530</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3252,13 +3276,13 @@
         <v>31226</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,7 +3303,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3288,13 +3312,13 @@
         <v>7010</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3303,13 +3327,13 @@
         <v>7010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,10 +3401,10 @@
         <v>3867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3395,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -3407,10 +3431,10 @@
         <v>23215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3428,13 +3452,13 @@
         <v>947</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3449,7 +3473,7 @@
         <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3458,13 +3482,13 @@
         <v>947</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,10 +3556,10 @@
         <v>8143</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3547,13 +3571,13 @@
         <v>44085</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -3562,13 +3586,13 @@
         <v>52229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3607,13 @@
         <v>1803</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3598,13 +3622,13 @@
         <v>5140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3613,13 +3637,13 @@
         <v>6943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,7 +3714,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3702,10 +3726,10 @@
         <v>19858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3717,10 +3741,10 @@
         <v>24028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3744,7 +3768,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3753,13 +3777,13 @@
         <v>1054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3768,13 +3792,13 @@
         <v>1054</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3884,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>26</v>
@@ -3875,7 +3899,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>26</v>
@@ -3914,7 +3938,7 @@
         <v>33</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3929,7 +3953,7 @@
         <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,10 +4021,10 @@
         <v>5737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -4015,7 +4039,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
@@ -4027,10 +4051,10 @@
         <v>50203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -4048,13 +4072,13 @@
         <v>2836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4069,7 +4093,7 @@
         <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4078,13 +4102,13 @@
         <v>2836</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,7 +4164,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4152,13 +4176,13 @@
         <v>2400</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -4170,7 +4194,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -4182,13 +4206,13 @@
         <v>37863</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,10 +4227,10 @@
         <v>3098</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>13</v>
@@ -4224,7 +4248,7 @@
         <v>33</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4233,13 +4257,13 @@
         <v>3098</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4331,13 @@
         <v>35005</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H28" s="7">
         <v>183</v>
@@ -4322,13 +4346,13 @@
         <v>199826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M28" s="7">
         <v>214</v>
@@ -4337,13 +4361,13 @@
         <v>234830</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4382,13 @@
         <v>8684</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4373,13 +4397,13 @@
         <v>13204</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -4388,13 +4412,13 @@
         <v>21889</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4474,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4474,7 +4498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECD00D2-B69A-41F2-A676-A47B5668FAD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BF29C6-9EDA-4205-9785-8ED1C0369829}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4491,7 +4515,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4598,7 +4622,7 @@
         <v>801</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
@@ -4613,10 +4637,10 @@
         <v>19840</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4628,13 +4652,13 @@
         <v>20641</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,7 +4673,7 @@
         <v>2318</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -4664,13 +4688,13 @@
         <v>922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4679,13 +4703,13 @@
         <v>3240</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,7 +4780,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -4771,7 +4795,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
@@ -4786,7 +4810,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>26</v>
@@ -4810,7 +4834,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4825,7 +4849,7 @@
         <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4840,7 +4864,7 @@
         <v>33</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,10 +4947,10 @@
         <v>9852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4938,10 +4962,10 @@
         <v>11442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4974,13 +4998,13 @@
         <v>1898</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4989,13 +5013,13 @@
         <v>1898</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5102,13 @@
         <v>25040</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -5096,10 +5120,10 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5153,13 @@
         <v>4848</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5147,10 +5171,10 @@
         <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,7 +5260,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -5251,7 +5275,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -5290,7 +5314,7 @@
         <v>33</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5305,7 +5329,7 @@
         <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,7 +5400,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -5406,7 +5430,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>26</v>
@@ -5430,7 +5454,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5460,7 +5484,7 @@
         <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5552,13 @@
         <v>10831</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5543,13 +5567,13 @@
         <v>16272</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -5558,13 +5582,13 @@
         <v>27104</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5603,13 @@
         <v>5405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5594,13 +5618,13 @@
         <v>8514</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -5609,13 +5633,13 @@
         <v>13918</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,7 +5695,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5683,13 +5707,13 @@
         <v>3927</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -5698,10 +5722,10 @@
         <v>27526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5713,13 +5737,13 @@
         <v>31453</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5758,13 @@
         <v>2864</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5749,13 +5773,13 @@
         <v>1080</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5764,13 +5788,13 @@
         <v>3944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5862,13 @@
         <v>31892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H28" s="7">
         <v>118</v>
@@ -5853,13 +5877,13 @@
         <v>127592</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M28" s="7">
         <v>150</v>
@@ -5868,13 +5892,13 @@
         <v>159485</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5913,13 @@
         <v>10586</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5904,13 +5928,13 @@
         <v>17262</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -5919,13 +5943,13 @@
         <v>27848</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,7 +6005,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE43E8C7-4229-45C4-A59D-6DD6721CEA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FBD3680-2D42-4421-8E8D-EA89AE196D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF2FB577-FEAE-41D3-AD31-422C004D5915}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A80DE4EB-8BA4-4849-A6B2-B323AECAE7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,13 +70,13 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>36,23%</t>
+    <t>51,76%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>93,45%</t>
   </si>
   <si>
-    <t>71,81%</t>
+    <t>67,46%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>68,58%</t>
+    <t>73,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>63,77%</t>
+    <t>48,24%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>28,19%</t>
+    <t>32,54%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>31,42%</t>
+    <t>26,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -130,13 +130,13 @@
     <t>95,46%</t>
   </si>
   <si>
-    <t>81,12%</t>
+    <t>80,91%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>83,37%</t>
+    <t>82,88%</t>
   </si>
   <si>
     <t>0%</t>
@@ -148,13 +148,13 @@
     <t>4,54%</t>
   </si>
   <si>
-    <t>18,88%</t>
+    <t>19,09%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>16,63%</t>
+    <t>17,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -166,16 +166,16 @@
     <t>93,17%</t>
   </si>
   <si>
-    <t>60,36%</t>
+    <t>63,46%</t>
   </si>
   <si>
     <t>78,34%</t>
   </si>
   <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -184,16 +184,16 @@
     <t>6,83%</t>
   </si>
   <si>
-    <t>39,64%</t>
+    <t>36,54%</t>
   </si>
   <si>
     <t>21,66%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,847 +202,847 @@
     <t>55,66%</t>
   </si>
   <si>
-    <t>27,08%</t>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
+    <t>55,4%</t>
   </si>
   <si>
     <t>33,93%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
   </si>
   <si>
     <t>57,83%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>42,17%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA9F740-1F3F-4777-A8E0-D5926AD7EC1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D8DE7B-E07C-41FF-A4FD-C863BEABE348}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2985,7 +2985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AC90D0-0346-470C-A852-EA4B830AA60E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BD04ED-2420-45E5-A0B8-7241E94EBBD4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4182,7 +4182,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -4194,7 +4194,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -4206,13 +4206,13 @@
         <v>37863</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,10 +4227,10 @@
         <v>3098</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>13</v>
@@ -4248,7 +4248,7 @@
         <v>33</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4257,13 +4257,13 @@
         <v>3098</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4331,13 @@
         <v>35005</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H28" s="7">
         <v>183</v>
@@ -4346,13 +4346,13 @@
         <v>199826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M28" s="7">
         <v>214</v>
@@ -4361,13 +4361,13 @@
         <v>234830</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4382,13 @@
         <v>8684</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4397,13 +4397,13 @@
         <v>13204</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -4412,13 +4412,13 @@
         <v>21889</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,7 +4498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BF29C6-9EDA-4205-9785-8ED1C0369829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589E9053-BDF9-43C5-8959-82DE90D89359}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4515,7 +4515,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4622,7 +4622,7 @@
         <v>801</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
@@ -4637,10 +4637,10 @@
         <v>19840</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4652,13 +4652,13 @@
         <v>20641</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,7 +4673,7 @@
         <v>2318</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -4688,13 +4688,13 @@
         <v>922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4703,13 +4703,13 @@
         <v>3240</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,7 +4795,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
@@ -4849,7 +4849,7 @@
         <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4947,10 +4947,10 @@
         <v>9852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4962,10 +4962,10 @@
         <v>11442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4998,13 +4998,13 @@
         <v>1898</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -5013,13 +5013,13 @@
         <v>1898</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5102,13 @@
         <v>25040</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -5120,10 +5120,10 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5153,13 @@
         <v>4848</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5171,10 +5171,10 @@
         <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,7 +5260,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -5275,7 +5275,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -5314,7 +5314,7 @@
         <v>33</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,7 +5400,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -5430,7 +5430,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>26</v>
@@ -5454,7 +5454,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5484,7 +5484,7 @@
         <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5552,13 @@
         <v>10831</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5567,13 +5567,13 @@
         <v>16272</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -5582,13 +5582,13 @@
         <v>27104</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5603,13 @@
         <v>5405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5618,13 +5618,13 @@
         <v>8514</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -5633,13 +5633,13 @@
         <v>13918</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5707,13 @@
         <v>3927</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -5722,10 +5722,10 @@
         <v>27526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5737,13 +5737,13 @@
         <v>31453</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5758,13 @@
         <v>2864</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5773,7 +5773,7 @@
         <v>1080</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>

--- a/data/trans_orig/P16B03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FBD3680-2D42-4421-8E8D-EA89AE196D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F823C45D-6204-4C66-BE0A-A019B674CBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A80DE4EB-8BA4-4849-A6B2-B323AECAE7E7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4608EA0A-49FF-4114-BCD5-EB25064BC24B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="344">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -487,7 +487,40 @@
     <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -562,52 +595,52 @@
     <t>18,63%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -847,9 +880,6 @@
     <t>67,47%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
     <t>72,84%</t>
   </si>
   <si>
@@ -857,9 +887,6 @@
   </si>
   <si>
     <t>16,22%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
   </si>
   <si>
     <t>32,53%</t>
@@ -1454,7 +1481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D8DE7B-E07C-41FF-A4FD-C863BEABE348}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85B0928-4F32-49F9-9D7F-F04D6CF83B30}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2830,7 +2857,7 @@
         <v>152</v>
       </c>
       <c r="I28" s="7">
-        <v>153799</v>
+        <v>153800</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>132</v>
@@ -2932,7 +2959,7 @@
         <v>171</v>
       </c>
       <c r="I30" s="7">
-        <v>172160</v>
+        <v>172161</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>26</v>
@@ -2985,7 +3012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BD04ED-2420-45E5-A0B8-7241E94EBBD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB0080A-42BF-4E8C-98B2-361490C14754}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3103,43 +3130,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3763</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>149</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15533</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>19296</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,43 +3181,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>879</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>983</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1862</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,43 +3232,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4642</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I6" s="7">
+        <v>16516</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N6" s="7">
+        <v>21158</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,7 +3294,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -3261,13 +3306,13 @@
         <v>22530</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3276,13 +3321,13 @@
         <v>31226</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3348,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3312,13 +3357,13 @@
         <v>7010</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3327,13 +3372,13 @@
         <v>7010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,10 +3446,10 @@
         <v>3867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3419,7 +3464,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -3431,10 +3476,10 @@
         <v>23215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3452,13 +3497,13 @@
         <v>947</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3473,7 +3518,7 @@
         <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3482,13 +3527,13 @@
         <v>947</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,49 +3595,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>8143</v>
+        <v>4380</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>44085</v>
+        <v>28552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N13" s="7">
-        <v>52229</v>
+        <v>32932</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3646,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1803</v>
+        <v>924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4157</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M14" s="7">
         <v>5</v>
       </c>
-      <c r="I14" s="7">
-        <v>5140</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
       <c r="N14" s="7">
-        <v>6943</v>
+        <v>5081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,10 +3697,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>9946</v>
+        <v>5304</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -3667,10 +3712,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I15" s="7">
-        <v>49225</v>
+        <v>32709</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -3682,10 +3727,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N15" s="7">
-        <v>59172</v>
+        <v>38013</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -3714,7 +3759,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -3726,10 +3771,10 @@
         <v>19858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3741,10 +3786,10 @@
         <v>24028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3768,7 +3813,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3777,13 +3822,13 @@
         <v>1054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3792,13 +3837,13 @@
         <v>1054</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3929,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>26</v>
@@ -3899,7 +3944,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>26</v>
@@ -3938,7 +3983,7 @@
         <v>33</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3953,7 +3998,7 @@
         <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,10 +4066,10 @@
         <v>5737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -4039,7 +4084,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
@@ -4051,10 +4096,10 @@
         <v>50203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -4072,13 +4117,13 @@
         <v>2836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4093,7 +4138,7 @@
         <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4102,13 +4147,13 @@
         <v>2836</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4221,13 @@
         <v>2400</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -4194,7 +4239,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>26</v>
@@ -4206,13 +4251,13 @@
         <v>37863</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,10 +4272,10 @@
         <v>3098</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>13</v>
@@ -4248,7 +4293,7 @@
         <v>33</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4257,13 +4302,13 @@
         <v>3098</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4376,13 @@
         <v>35005</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H28" s="7">
         <v>183</v>
@@ -4346,13 +4391,13 @@
         <v>199826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M28" s="7">
         <v>214</v>
@@ -4361,13 +4406,13 @@
         <v>234830</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4427,13 @@
         <v>8684</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4397,13 +4442,13 @@
         <v>13204</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -4412,13 +4457,13 @@
         <v>21889</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,7 +4543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589E9053-BDF9-43C5-8959-82DE90D89359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D559789-ABDA-4459-BEA6-2ECC6C422138}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4515,7 +4560,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4622,7 +4667,7 @@
         <v>801</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
@@ -4637,10 +4682,10 @@
         <v>19840</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4652,13 +4697,13 @@
         <v>20641</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,7 +4718,7 @@
         <v>2318</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -4688,13 +4733,13 @@
         <v>922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4703,13 +4748,13 @@
         <v>3240</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,7 +4825,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -4795,7 +4840,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
@@ -4810,7 +4855,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>26</v>
@@ -4834,7 +4879,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4849,7 +4894,7 @@
         <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4864,7 +4909,7 @@
         <v>33</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,10 +4992,10 @@
         <v>9852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4962,10 +5007,10 @@
         <v>11442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4998,13 +5043,13 @@
         <v>1898</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -5013,13 +5058,13 @@
         <v>1898</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5147,13 @@
         <v>25040</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -5120,10 +5165,10 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5198,13 @@
         <v>4848</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5171,10 +5216,10 @@
         <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,7 +5305,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -5275,7 +5320,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -5314,7 +5359,7 @@
         <v>33</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5329,7 +5374,7 @@
         <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,7 +5445,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -5430,7 +5475,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>26</v>
@@ -5454,7 +5499,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5484,7 +5529,7 @@
         <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5597,13 @@
         <v>10831</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5567,13 +5612,13 @@
         <v>16272</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -5582,13 +5627,13 @@
         <v>27104</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5648,13 @@
         <v>5405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5618,13 +5663,13 @@
         <v>8514</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -5633,13 +5678,13 @@
         <v>13918</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5752,13 @@
         <v>3927</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -5722,10 +5767,10 @@
         <v>27526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5737,13 +5782,13 @@
         <v>31453</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5803,13 @@
         <v>2864</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5773,13 +5818,13 @@
         <v>1080</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5788,13 +5833,13 @@
         <v>3944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5907,13 @@
         <v>31892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H28" s="7">
         <v>118</v>
@@ -5877,13 +5922,13 @@
         <v>127592</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M28" s="7">
         <v>150</v>
@@ -5892,13 +5937,13 @@
         <v>159485</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5958,13 @@
         <v>10586</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5928,13 +5973,13 @@
         <v>17262</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -5943,13 +5988,13 @@
         <v>27848</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
